--- a/mensagens.xlsx
+++ b/mensagens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,6 +510,18 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>11192559000187</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>HOSPI BIO INDUSTRIA E COMERCIO DE MOVEIS HOSPITALARES LTDA, segue resumo dos seus débitos de FGTS: 12/2024: R$ 3257.15, 13/2024: R$ 1516.12.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mensagens.xlsx
+++ b/mensagens.xlsx
@@ -452,7 +452,9 @@
       <c r="B2" t="inlineStr">
         <is>
           <t>Olá A CRUZ DA SILVA COLCHOES E ESTOFADOS,
-Segue o resumo dos seus débitos consultados no dia 30/01/25:
+Identificamos que sua empresa possui algumas pendências em aberto junto à Receita Federal.
+Essas pendências podem gerar multas, juros e complicações mais sérias se não forem regularizadas em tempo hábil.
+Segue o resumo dos seus débitos:
 **Referente a 08/2024:**
   - Departamento Pessoal: R$ 644.04
 **Referente a 09/2024:**
@@ -465,8 +467,14 @@
   - Departamento Pessoal: R$ 543.07
 **Referente a 2024:**
   - Departamento Pessoal: R$ 99.60
-A CRUZ DA SILVA COLCHOES E ESTOFADOS, com base em consulta no dia 30/01/25, 
-Você tem os processos 90.4.25.000350-37, 90.4.25.000493-30, 90.4.25.000521-28 em 'ATIVA NAO AJUIZAVEL EM PROCESSO DE NEGOCIACAO NO SISPAR'.</t>
+A empresa possui os seguintes débitos referente a parcelamentos: 
+ATIVA NAO AJUIZAVEL EM PROCESSO DE NEGOCIACAO NO SISPAR'.
+Os valores informados são válidos na data de envio deste e-mail (03/02/25) e podem sofrer alterações.
+Caso tenha interesse em regularizar essas pendências, entre em contato com o nosso time para mais detalhes e orientações sobre os próximos passos.
+Ficamos à disposição para qualquer dúvida ou informação adicional!
+Atenciosamente,
+Prímor Contábil
+(44) 98462-9927 / atendimento@contabilprimor.com.br</t>
         </is>
       </c>
     </row>
@@ -477,7 +485,9 @@
       <c r="B3" t="inlineStr">
         <is>
           <t>Olá ADIALA MOVEIS EXCLUSIVOS LTDA,
-Segue o resumo dos seus débitos consultados no dia 30/01/25:
+Identificamos que sua empresa possui algumas pendências em aberto junto à Receita Federal.
+Essas pendências podem gerar multas, juros e complicações mais sérias se não forem regularizadas em tempo hábil.
+Segue o resumo dos seus débitos:
 **Referente a 01/2024:**
   - Departamento Pessoal: R$ 975.72
 **Referente a 02/2024:**
@@ -502,23 +512,33 @@
   - Departamento Pessoal: R$ 41.70
 **Referente a 12/2023:**
   - Departamento Pessoal: R$ 981.75
-ADIALA MOVEIS EXCLUSIVOS, com base em consulta no dia 30/01/25, 
-Você tem os processos 18433540-0, 19672009-5 em '000520 - INSCRICAO DE CREDITO EM DIVIDA ATIVA'.
-Você tem os processos 16454705-3, 18373640-0 em '000797 - PARCELAMENTO RESCINDIDO'.
-Você tem os processos 90.4.20.003200-34, 90.4.20.025081-70, 90.4.21.002594-85, 90.4.23.059467-00 em 'ATIVA A SER AJUIZADA'.
-Você tem os processos 90.2.24.006707-39, 90.2.24.017595-04, 90.4.23.059449-29, 90.4.23.065843-14, 90.4.23.065844-03, 90.4.23.065845-86, 90.4.23.065846-67, 90.4.23.065847-48, 90.4.23.065848-29, 90.4.23.065849-00, 90.4.23.065850-43, 90.4.23.231741-02, 90.4.23.231742-93, 90.4.23.231743-74, 90.4.23.231744-55, 90.4.23.231745-36, 90.4.23.231746-17, 90.4.24.108611-67, 90.4.24.108612-48, 90.4.24.192989-02, 90.4.24.192990-38, 90.5.22.011269-84, 90.5.22.011270-18, 90.5.22.011271-07, 90.5.22.011272-80, 90.5.22.011273-60, 90.5.22.011274-41, 90.5.22.011275-22 em 'ATIVA EM COBRANCA'.</t>
+A empresa possui os seguintes débitos referente a parcelamentos: 
+000520 - INSCRICAO DE CREDITO EM DIVIDA ATIVA'.
+000797 - PARCELAMENTO RESCINDIDO'.
+ATIVA A SER AJUIZADA'.
+ATIVA EM COBRANCA'.
+Os valores informados são válidos na data de envio deste e-mail (03/02/25) e podem sofrer alterações.
+Caso tenha interesse em regularizar essas pendências, entre em contato com o nosso time para mais detalhes e orientações sobre os próximos passos.
+Ficamos à disposição para qualquer dúvida ou informação adicional!
+Atenciosamente,
+Prímor Contábil
+(44) 98462-9927 / atendimento@contabilprimor.com.br</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>11192559000187</t>
-        </is>
+      <c r="A4" t="n">
+        <v>11192559000187</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HOSPI BIO INDUSTRIA E COMERCIO DE MOVEIS HOSPITALARES LTDA, segue resumo dos seus débitos de FGTS: 12/2024: R$ 3257.15, 13/2024: R$ 1516.12.</t>
+          <t>HOSPI BIO INDUSTRIA E COMERCIO DE MOVEIS HOSPITALARES LTDA, segue resumo dos seus débitos de FGTS: 12/2024: R$ 3257.15, 13/2024: R$ 1516.12.
+Os valores informados são válidos na data de envio deste e-mail (03/02/25) e podem sofrer alterações.
+Caso tenha interesse em regularizar essas pendências, entre em contato com o nosso time para mais detalhes e orientações sobre os próximos passos.
+Ficamos à disposição para qualquer dúvida ou informação adicional!
+Atenciosamente,
+Prímor Contábil
+(44) 98462-9927 / atendimento@contabilprimor.com.br</t>
         </is>
       </c>
     </row>

--- a/mensagens.xlsx
+++ b/mensagens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B76"/>
+  <dimension ref="A1:B78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2558,7 +2558,39 @@
 Ficamos à disposição para qualquer dúvida ou informação adicional!
 Atenciosamente,
 Prímor Contábil
-(44) 98462-9927 / atendimento@contabilprimor.com.br</t>
+(44) 98462-9927 / atendimento@contabilprimor.com.br
+Olá 2W COBERTURAS LTDA,
+Identificamos que sua empresa possui algumas pendências em aberto junto à Receita Federal.
+Essas pendências podem gerar multas, juros e complicações mais sérias se não forem regularizadas em tempo hábil.
+Segue o resumo dos seus débitos:
+**Referente a 10/2024:**
+  - Departamento Pessoal: R$ 1268.63
+**Referente a 11/2024:**
+  - Departamento Pessoal: R$ 1160.74
+Olá 2W COBERTURAS LTDA,
+Identificamos que sua empresa possui algumas pendências em aberto junto à Receita Federal.
+Essas pendências podem gerar multas, juros e complicações mais sérias se não forem regularizadas em tempo hábil.
+Segue o resumo dos seus débitos:
+**Referente a 10/2024:**
+  - Departamento Pessoal: R$ 1268.63
+**Referente a 11/2024:**
+  - Departamento Pessoal: R$ 1160.74
+Olá 2W COBERTURAS LTDA,
+Identificamos que sua empresa possui algumas pendências em aberto junto à Receita Federal.
+Essas pendências podem gerar multas, juros e complicações mais sérias se não forem regularizadas em tempo hábil.
+Segue o resumo dos seus débitos:
+**Referente a 10/2024:**
+  - Departamento Pessoal: R$ 1268.63
+**Referente a 11/2024:**
+  - Departamento Pessoal: R$ 1160.74
+Olá 2W COBERTURAS LTDA,
+Identificamos que sua empresa possui algumas pendências em aberto junto à Receita Federal.
+Essas pendências podem gerar multas, juros e complicações mais sérias se não forem regularizadas em tempo hábil.
+Segue o resumo dos seus débitos:
+**Referente a 10/2024:**
+  - Departamento Pessoal: R$ 1268.63
+**Referente a 11/2024:**
+  - Departamento Pessoal: R$ 1160.74</t>
         </is>
       </c>
     </row>
@@ -4826,7 +4858,63 @@
 Ficamos à disposição para qualquer dúvida ou informação adicional!
 Atenciosamente,
 Prímor Contábil
-(44) 98462-9927 / atendimento@contabilprimor.com.br</t>
+(44) 98462-9927 / atendimento@contabilprimor.com.br
+Olá A C DE LIMA COSTA LTDA,
+Identificamos que sua empresa possui algumas pendências em aberto junto à Receita Federal.
+Essas pendências podem gerar multas, juros e complicações mais sérias se não forem regularizadas em tempo hábil.
+Segue o resumo dos seus débitos:
+**Referente a 01/2024:**
+  - Departamento Pessoal: R$ 201.30
+**Referente a 02/2024:**
+  - Departamento Pessoal: R$ 200.01
+**Referente a 03/2024:**
+  - Departamento Pessoal: R$ 198.63
+**Referente a 04/2024:**
+  - Departamento Pessoal: R$ 197.34
+**Referente a 05/2024:**
+  - Departamento Pessoal: R$ 196.11
+**Referente a 06/2024:**
+  - Departamento Pessoal: R$ 194.70
+**Referente a 07/2024:**
+  - Departamento Pessoal: R$ 193.35
+**Referente a 08/2024:**
+  - Departamento Pessoal: R$ 192.04
+**Referente a 09/2024:**
+  - Departamento Pessoal: R$ 190.60
+**Referente a 10/2024:**
+  - Departamento Pessoal: R$ 189.37
+**Referente a 11/2024:**
+  - Departamento Pessoal: R$ 173.27
+**Referente a 12/2023:**
+  - Departamento Pessoal: R$ 189.35
+Olá A C DE LIMA COSTA LTDA,
+Identificamos que sua empresa possui algumas pendências em aberto junto à Receita Federal.
+Essas pendências podem gerar multas, juros e complicações mais sérias se não forem regularizadas em tempo hábil.
+Segue o resumo dos seus débitos:
+**Referente a 01/2024:**
+  - Departamento Pessoal: R$ 201.30
+**Referente a 02/2024:**
+  - Departamento Pessoal: R$ 200.01
+**Referente a 03/2024:**
+  - Departamento Pessoal: R$ 198.63
+**Referente a 04/2024:**
+  - Departamento Pessoal: R$ 197.34
+**Referente a 05/2024:**
+  - Departamento Pessoal: R$ 196.11
+**Referente a 06/2024:**
+  - Departamento Pessoal: R$ 194.70
+**Referente a 07/2024:**
+  - Departamento Pessoal: R$ 193.35
+**Referente a 08/2024:**
+  - Departamento Pessoal: R$ 192.04
+**Referente a 09/2024:**
+  - Departamento Pessoal: R$ 190.60
+**Referente a 10/2024:**
+  - Departamento Pessoal: R$ 189.37
+**Referente a 11/2024:**
+  - Departamento Pessoal: R$ 173.27
+**Referente a 12/2023:**
+  - Departamento Pessoal: R$ 189.35</t>
         </is>
       </c>
     </row>
@@ -5080,6 +5168,18 @@
       <c r="B34" t="inlineStr">
         <is>
           <t>Olá C R V ESTERO E CIA LTDA,
+Identificamos que sua empresa possui algumas pendências em aberto junto à Receita Federal.
+Essas pendências podem gerar multas, juros e complicações mais sérias se não forem regularizadas em tempo hábil.
+Segue o resumo dos seus débitos:
+**Referente a 11/2024:**
+  - Departamento Pessoal: R$ 830.31
+Olá C R V ESTERO E CIA LTDA,
+Identificamos que sua empresa possui algumas pendências em aberto junto à Receita Federal.
+Essas pendências podem gerar multas, juros e complicações mais sérias se não forem regularizadas em tempo hábil.
+Segue o resumo dos seus débitos:
+**Referente a 11/2024:**
+  - Departamento Pessoal: R$ 830.31
+Olá C R V ESTERO E CIA LTDA,
 Identificamos que sua empresa possui algumas pendências em aberto junto à Receita Federal.
 Essas pendências podem gerar multas, juros e complicações mais sérias se não forem regularizadas em tempo hábil.
 Segue o resumo dos seus débitos:
@@ -17068,6 +17168,77 @@
         </is>
       </c>
     </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>46980481000140</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Olá 149 DIGITAL LTDA,
+Identificamos que sua empresa possui algumas pendências em aberto junto à Receita Federal.
+Essas pendências podem gerar multas, juros e complicações mais sérias se não forem regularizadas em tempo hábil.
+Segue o resumo dos seus débitos:
+**Referente a 10/2024:**
+  - outros (SIMPLES NAC.): R$ 266.27
+  - Departamento Pessoal: R$ 189.37
+Olá 149 DIGITAL LTDA,
+Identificamos que sua empresa possui algumas pendências em aberto junto à Receita Federal.
+Essas pendências podem gerar multas, juros e complicações mais sérias se não forem regularizadas em tempo hábil.
+Segue o resumo dos seus débitos:
+**Referente a 10/2024:**
+  - outros (SIMPLES NAC.): R$ 266.27
+  - Departamento Pessoal: R$ 189.37
+Olá 149 DIGITAL LTDA,
+Identificamos que sua empresa possui algumas pendências em aberto junto à Receita Federal.
+Essas pendências podem gerar multas, juros e complicações mais sérias se não forem regularizadas em tempo hábil.
+Segue o resumo dos seus débitos:
+**Referente a 10/2024:**
+  - outros (SIMPLES NAC.): R$ 266.27
+  - Departamento Pessoal: R$ 189.37
+Olá 149 DIGITAL LTDA,
+Identificamos que sua empresa possui algumas pendências em aberto junto à Receita Federal.
+Essas pendências podem gerar multas, juros e complicações mais sérias se não forem regularizadas em tempo hábil.
+Segue o resumo dos seus débitos:
+**Referente a 10/2024:**
+  - outros (SIMPLES NAC.): R$ 266.27
+  - Departamento Pessoal: R$ 189.37
+Olá 149 DIGITAL LTDA,
+Identificamos que sua empresa possui algumas pendências em aberto junto à Receita Federal.
+Essas pendências podem gerar multas, juros e complicações mais sérias se não forem regularizadas em tempo hábil.
+Segue o resumo dos seus débitos:
+**Referente a 10/2024:**
+  - outros (SIMPLES NAC.): R$ 266.27
+  - Departamento Pessoal: R$ 189.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>20119119000195</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Olá A CRUZ DA SILVA COLCHOES E ESTOFADOS,
+Identificamos que sua empresa possui algumas pendências em aberto junto à Receita Federal.
+Essas pendências podem gerar multas, juros e complicações mais sérias se não forem regularizadas em tempo hábil.
+Segue o resumo dos seus débitos:
+**Referente a 08/2024:**
+  - Departamento Pessoal: R$ 644.04
+**Referente a 09/2024:**
+  - Departamento Pessoal: R$ 383.36
+**Referente a 10/2024:**
+  - Departamento Pessoal: R$ 529.49
+**Referente a 11/2024:**
+  - Departamento Pessoal: R$ 529.65
+**Referente a 12/2024:**
+  - Departamento Pessoal: R$ 543.07
+**Referente a 2024:**
+  - Departamento Pessoal: R$ 99.60
+A empresa possui os seguintes débitos referente a parcelamentos: 
+ATIVA NAO AJUIZAVEL EM PROCESSO DE NEGOCIACAO NO SISPAR'.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mensagens.xlsx
+++ b/mensagens.xlsx
@@ -1,37 +1,188 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hillebrande\Documents\Automacao_rfb\d-bitos_rfb_pr-mor\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43236C0-A77F-4712-A38D-2EC72CB49238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>Empresa</t>
+  </si>
+  <si>
+    <t>Mensagem</t>
+  </si>
+  <si>
+    <t>Olá ZANOTTOS BELEZA E TREINAMENTOS LTDA,
+Identificamos que sua empresa possui algumas pendências em aberto junto à Receita Federal.
+Essas pendências podem gerar multas, juros e complicações mais sérias se não forem regularizadas em tempo hábil.
+Segue o resumo dos seus débitos:
+**Referente a 05/2024:**
+  - outros (SIMPLES NAC.): R$ 71.00
+**Referente a 08/2024:**
+  - outros (SIMPLES NAC.): R$ 538.35
+A empresa possui os seguintes débitos referente a parcelamentos: 
+ATIVA A SER COBRADA'.
+Os valores informados são válidos na data de envio deste e-mail (06/02/25) e podem sofrer alterações.
+Caso tenha interesse em regularizar essas pendências, entre em contato com o nosso time para mais detalhes e orientações sobre os próximos passos.
+Ficamos à disposição para qualquer dúvida ou informação adicional!
+Atenciosamente,
+Prímor Contábil
+(44) 98462-9927 / atendimento@contabilprimor.com.br</t>
+  </si>
+  <si>
+    <t>Olá PEDRADA FILMES LTDA,
+Identificamos que sua empresa possui algumas pendências em aberto junto à Receita Federal.
+Essas pendências podem gerar multas, juros e complicações mais sérias se não forem regularizadas em tempo hábil.
+Segue o resumo dos seus débitos:
+**Referente a 11/2024:**
+Os valores informados são válidos na data de envio deste e-mail (06/02/25) e podem sofrer alterações.
+Caso tenha interesse em regularizar essas pendências, entre em contato com o nosso time para mais detalhes e orientações sobre os próximos passos.
+Ficamos à disposição para qualquer dúvida ou informação adicional!
+Atenciosamente,
+Prímor Contábil
+(44) 98462-9927 / atendimento@contabilprimor.com.br</t>
+  </si>
+  <si>
+    <t>Olá WR ASSESSORIA PECUARIA LTDA,
+Identificamos que sua empresa possui algumas pendências em aberto junto à Receita Federal.
+Essas pendências podem gerar multas, juros e complicações mais sérias se não forem regularizadas em tempo hábil.
+Segue o resumo dos seus débitos:
+**Referente a 11/2024:**
+  - Departamento Pessoal: R$ 346.54
+Os valores informados são válidos na data de envio deste e-mail (06/02/25) e podem sofrer alterações.
+Caso tenha interesse em regularizar essas pendências, entre em contato com o nosso time para mais detalhes e orientações sobre os próximos passos.
+Ficamos à disposição para qualquer dúvida ou informação adicional!
+Atenciosamente,
+Prímor Contábil
+(44) 98462-9927 / atendimento@contabilprimor.com.br</t>
+  </si>
+  <si>
+    <t>Olá PB SERVICOS DE FISIOTERAPIA LTDA,
+Identificamos que sua empresa possui algumas pendências em aberto junto à Receita Federal.
+Essas pendências podem gerar multas, juros e complicações mais sérias se não forem regularizadas em tempo hábil.
+Segue o resumo dos seus débitos:
+**Referente a 10/2024:**
+  - outros (SIMPLES NAC.): R$ 97.27
+**Referente a 11/2024:**
+  - outros (SIMPLES NAC.): R$ 89.00
+Os valores informados são válidos na data de envio deste e-mail (06/02/25) e podem sofrer alterações.
+Caso tenha interesse em regularizar essas pendências, entre em contato com o nosso time para mais detalhes e orientações sobre os próximos passos.
+Ficamos à disposição para qualquer dúvida ou informação adicional!
+Atenciosamente,
+Prímor Contábil
+(44) 98462-9927 / atendimento@contabilprimor.com.br</t>
+  </si>
+  <si>
+    <t>Olá GARCIA &amp; MARQUES M G LTDA,
+Identificamos que sua empresa possui algumas pendências em aberto junto à Receita Federal.
+Essas pendências podem gerar multas, juros e complicações mais sérias se não forem regularizadas em tempo hábil.
+Segue o resumo dos seus débitos:
+**Referente a 11/2024:**
+  - Departamento Pessoal: R$ 392.69
+Os valores informados são válidos na data de envio deste e-mail (06/02/25) e podem sofrer alterações.
+Caso tenha interesse em regularizar essas pendências, entre em contato com o nosso time para mais detalhes e orientações sobre os próximos passos.
+Ficamos à disposição para qualquer dúvida ou informação adicional!
+Atenciosamente,
+Prímor Contábil
+(44) 98462-9927 / atendimento@contabilprimor.com.br</t>
+  </si>
+  <si>
+    <t>Olá GARCIA MADRUGA LTDA,
+Identificamos que sua empresa possui algumas pendências em aberto junto à Receita Federal.
+Essas pendências podem gerar multas, juros e complicações mais sérias se não forem regularizadas em tempo hábil.
+Segue o resumo dos seus débitos:
+**Referente a 11/2024:**
+  - Departamento Pessoal: R$ 734.62
+Os valores informados são válidos na data de envio deste e-mail (06/02/25) e podem sofrer alterações.
+Caso tenha interesse em regularizar essas pendências, entre em contato com o nosso time para mais detalhes e orientações sobre os próximos passos.
+Ficamos à disposição para qualquer dúvida ou informação adicional!
+Atenciosamente,
+Prímor Contábil
+(44) 98462-9927 / atendimento@contabilprimor.com.br</t>
+  </si>
+  <si>
+    <t>Olá W M ALONSO LTDA,
+Identificamos que sua empresa possui algumas pendências em aberto junto à Receita Federal.
+Essas pendências podem gerar multas, juros e complicações mais sérias se não forem regularizadas em tempo hábil.
+Segue o resumo dos seus débitos:
+**Referente a 05/2024:**
+  - Departamento Pessoal: R$ 361.13
+**Referente a 06/2024:**
+  - Departamento Pessoal: R$ 358.52
+**Referente a 07/2024:**
+  - Departamento Pessoal: R$ 356.04
+**Referente a 08/2024:**
+  - Departamento Pessoal: R$ 353.63
+**Referente a 09/2024:**
+  - Departamento Pessoal: R$ 350.97
+**Referente a 10/2024:**
+  - Departamento Pessoal: R$ 348.71
+**Referente a 11/2024:**
+  - Departamento Pessoal: R$ 319.06
+Os valores informados são válidos na data de envio deste e-mail (06/02/25) e podem sofrer alterações.
+Caso tenha interesse em regularizar essas pendências, entre em contato com o nosso time para mais detalhes e orientações sobre os próximos passos.
+Ficamos à disposição para qualquer dúvida ou informação adicional!
+Atenciosamente,
+Prímor Contábil
+(44) 98462-9927 / atendimento@contabilprimor.com.br</t>
+  </si>
+  <si>
+    <t>Olá YOUNG TECHNOLOGY LTDA,
+Identificamos que sua empresa possui algumas pendências em aberto junto à Receita Federal.
+Essas pendências podem gerar multas, juros e complicações mais sérias se não forem regularizadas em tempo hábil.
+Segue o resumo dos seus débitos:
+**Referente a 10/2024:**
+  - Departamento Pessoal: R$ 1.34
+**Referente a 11/2024:**
+  - Departamento Pessoal: R$ 173.27
+Os valores informados são válidos na data de envio deste e-mail (06/02/25) e podem sofrer alterações.
+Caso tenha interesse em regularizar essas pendências, entre em contato com o nosso time para mais detalhes e orientações sobre os próximos passos.
+Ficamos à disposição para qualquer dúvida ou informação adicional!
+Atenciosamente,
+Prímor Contábil
+(44) 98462-9927 / atendimento@contabilprimor.com.br</t>
+  </si>
+  <si>
+    <t>00907315000117</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +197,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,216 +522,88 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Empresa</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Mensagem</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>28317271000194</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Olá ZANOTTOS BELEZA E TREINAMENTOS LTDA,
-Identificamos que sua empresa possui algumas pendências em aberto junto à Receita Federal.
-Essas pendências podem gerar multas, juros e complicações mais sérias se não forem regularizadas em tempo hábil.
-Segue o resumo dos seus débitos:
-**Referente a 05/2024:**
-  - outros (SIMPLES NAC.): R$ 71.00
-**Referente a 08/2024:**
-  - outros (SIMPLES NAC.): R$ 538.35
-A empresa possui os seguintes débitos referente a parcelamentos: 
-ATIVA A SER COBRADA'.
-Os valores informados são válidos na data de envio deste e-mail (06/02/25) e podem sofrer alterações.
-Caso tenha interesse em regularizar essas pendências, entre em contato com o nosso time para mais detalhes e orientações sobre os próximos passos.
-Ficamos à disposição para qualquer dúvida ou informação adicional!
-Atenciosamente,
-Prímor Contábil
-(44) 98462-9927 / atendimento@contabilprimor.com.br</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>30523220000160</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Olá PEDRADA FILMES LTDA,
-Identificamos que sua empresa possui algumas pendências em aberto junto à Receita Federal.
-Essas pendências podem gerar multas, juros e complicações mais sérias se não forem regularizadas em tempo hábil.
-Segue o resumo dos seus débitos:
-**Referente a 11/2024:**
-Os valores informados são válidos na data de envio deste e-mail (06/02/25) e podem sofrer alterações.
-Caso tenha interesse em regularizar essas pendências, entre em contato com o nosso time para mais detalhes e orientações sobre os próximos passos.
-Ficamos à disposição para qualquer dúvida ou informação adicional!
-Atenciosamente,
-Prímor Contábil
-(44) 98462-9927 / atendimento@contabilprimor.com.br</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>43207542000142</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Olá WR ASSESSORIA PECUARIA LTDA,
-Identificamos que sua empresa possui algumas pendências em aberto junto à Receita Federal.
-Essas pendências podem gerar multas, juros e complicações mais sérias se não forem regularizadas em tempo hábil.
-Segue o resumo dos seus débitos:
-**Referente a 11/2024:**
-  - Departamento Pessoal: R$ 346.54
-Os valores informados são válidos na data de envio deste e-mail (06/02/25) e podem sofrer alterações.
-Caso tenha interesse em regularizar essas pendências, entre em contato com o nosso time para mais detalhes e orientações sobre os próximos passos.
-Ficamos à disposição para qualquer dúvida ou informação adicional!
-Atenciosamente,
-Prímor Contábil
-(44) 98462-9927 / atendimento@contabilprimor.com.br</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>43736793000114</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Olá PB SERVICOS DE FISIOTERAPIA LTDA,
-Identificamos que sua empresa possui algumas pendências em aberto junto à Receita Federal.
-Essas pendências podem gerar multas, juros e complicações mais sérias se não forem regularizadas em tempo hábil.
-Segue o resumo dos seus débitos:
-**Referente a 10/2024:**
-  - outros (SIMPLES NAC.): R$ 97.27
-**Referente a 11/2024:**
-  - outros (SIMPLES NAC.): R$ 89.00
-Os valores informados são válidos na data de envio deste e-mail (06/02/25) e podem sofrer alterações.
-Caso tenha interesse em regularizar essas pendências, entre em contato com o nosso time para mais detalhes e orientações sobre os próximos passos.
-Ficamos à disposição para qualquer dúvida ou informação adicional!
-Atenciosamente,
-Prímor Contábil
-(44) 98462-9927 / atendimento@contabilprimor.com.br</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>44719717000163</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Olá GARCIA &amp; MARQUES M G LTDA,
-Identificamos que sua empresa possui algumas pendências em aberto junto à Receita Federal.
-Essas pendências podem gerar multas, juros e complicações mais sérias se não forem regularizadas em tempo hábil.
-Segue o resumo dos seus débitos:
-**Referente a 11/2024:**
-  - Departamento Pessoal: R$ 392.69
-Os valores informados são válidos na data de envio deste e-mail (06/02/25) e podem sofrer alterações.
-Caso tenha interesse em regularizar essas pendências, entre em contato com o nosso time para mais detalhes e orientações sobre os próximos passos.
-Ficamos à disposição para qualquer dúvida ou informação adicional!
-Atenciosamente,
-Prímor Contábil
-(44) 98462-9927 / atendimento@contabilprimor.com.br</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>51465799000122</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Olá GARCIA MADRUGA LTDA,
-Identificamos que sua empresa possui algumas pendências em aberto junto à Receita Federal.
-Essas pendências podem gerar multas, juros e complicações mais sérias se não forem regularizadas em tempo hábil.
-Segue o resumo dos seus débitos:
-**Referente a 11/2024:**
-  - Departamento Pessoal: R$ 734.62
-Os valores informados são válidos na data de envio deste e-mail (06/02/25) e podem sofrer alterações.
-Caso tenha interesse em regularizar essas pendências, entre em contato com o nosso time para mais detalhes e orientações sobre os próximos passos.
-Ficamos à disposição para qualquer dúvida ou informação adicional!
-Atenciosamente,
-Prímor Contábil
-(44) 98462-9927 / atendimento@contabilprimor.com.br</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>53269722000102</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Olá W M ALONSO LTDA,
-Identificamos que sua empresa possui algumas pendências em aberto junto à Receita Federal.
-Essas pendências podem gerar multas, juros e complicações mais sérias se não forem regularizadas em tempo hábil.
-Segue o resumo dos seus débitos:
-**Referente a 05/2024:**
-  - Departamento Pessoal: R$ 361.13
-**Referente a 06/2024:**
-  - Departamento Pessoal: R$ 358.52
-**Referente a 07/2024:**
-  - Departamento Pessoal: R$ 356.04
-**Referente a 08/2024:**
-  - Departamento Pessoal: R$ 353.63
-**Referente a 09/2024:**
-  - Departamento Pessoal: R$ 350.97
-**Referente a 10/2024:**
-  - Departamento Pessoal: R$ 348.71
-**Referente a 11/2024:**
-  - Departamento Pessoal: R$ 319.06
-Os valores informados são válidos na data de envio deste e-mail (06/02/25) e podem sofrer alterações.
-Caso tenha interesse em regularizar essas pendências, entre em contato com o nosso time para mais detalhes e orientações sobre os próximos passos.
-Ficamos à disposição para qualquer dúvida ou informação adicional!
-Atenciosamente,
-Prímor Contábil
-(44) 98462-9927 / atendimento@contabilprimor.com.br</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>54614744000125</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Olá YOUNG TECHNOLOGY LTDA,
-Identificamos que sua empresa possui algumas pendências em aberto junto à Receita Federal.
-Essas pendências podem gerar multas, juros e complicações mais sérias se não forem regularizadas em tempo hábil.
-Segue o resumo dos seus débitos:
-**Referente a 10/2024:**
-  - Departamento Pessoal: R$ 1.34
-**Referente a 11/2024:**
-  - Departamento Pessoal: R$ 173.27
-Os valores informados são válidos na data de envio deste e-mail (06/02/25) e podem sofrer alterações.
-Caso tenha interesse em regularizar essas pendências, entre em contato com o nosso time para mais detalhes e orientações sobre os próximos passos.
-Ficamos à disposição para qualquer dúvida ou informação adicional!
-Atenciosamente,
-Prímor Contábil
-(44) 98462-9927 / atendimento@contabilprimor.com.br</t>
-        </is>
+      <c r="B9" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/mensagens.xlsx
+++ b/mensagens.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hillebrande\Documents\Automacao_rfb\d-bitos_rfb_pr-mor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Hdlogika\k\Backup_19_08_2021\Unidade_D\K\LEATICIA\Luiz Fernando\Automation_rfb\d-bitos_rfb_pr-mor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43236C0-A77F-4712-A38D-2EC72CB49238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B2CD0C-C164-4C44-A6E0-F4C159426509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,73 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Empresa</t>
   </si>
   <si>
     <t>Mensagem</t>
-  </si>
-  <si>
-    <t>Olá ZANOTTOS BELEZA E TREINAMENTOS LTDA,
-Identificamos que sua empresa possui algumas pendências em aberto junto à Receita Federal.
-Essas pendências podem gerar multas, juros e complicações mais sérias se não forem regularizadas em tempo hábil.
-Segue o resumo dos seus débitos:
-**Referente a 05/2024:**
-  - outros (SIMPLES NAC.): R$ 71.00
-**Referente a 08/2024:**
-  - outros (SIMPLES NAC.): R$ 538.35
-A empresa possui os seguintes débitos referente a parcelamentos: 
-ATIVA A SER COBRADA'.
-Os valores informados são válidos na data de envio deste e-mail (06/02/25) e podem sofrer alterações.
-Caso tenha interesse em regularizar essas pendências, entre em contato com o nosso time para mais detalhes e orientações sobre os próximos passos.
-Ficamos à disposição para qualquer dúvida ou informação adicional!
-Atenciosamente,
-Prímor Contábil
-(44) 98462-9927 / atendimento@contabilprimor.com.br</t>
-  </si>
-  <si>
-    <t>Olá PEDRADA FILMES LTDA,
-Identificamos que sua empresa possui algumas pendências em aberto junto à Receita Federal.
-Essas pendências podem gerar multas, juros e complicações mais sérias se não forem regularizadas em tempo hábil.
-Segue o resumo dos seus débitos:
-**Referente a 11/2024:**
-Os valores informados são válidos na data de envio deste e-mail (06/02/25) e podem sofrer alterações.
-Caso tenha interesse em regularizar essas pendências, entre em contato com o nosso time para mais detalhes e orientações sobre os próximos passos.
-Ficamos à disposição para qualquer dúvida ou informação adicional!
-Atenciosamente,
-Prímor Contábil
-(44) 98462-9927 / atendimento@contabilprimor.com.br</t>
-  </si>
-  <si>
-    <t>Olá WR ASSESSORIA PECUARIA LTDA,
-Identificamos que sua empresa possui algumas pendências em aberto junto à Receita Federal.
-Essas pendências podem gerar multas, juros e complicações mais sérias se não forem regularizadas em tempo hábil.
-Segue o resumo dos seus débitos:
-**Referente a 11/2024:**
-  - Departamento Pessoal: R$ 346.54
-Os valores informados são válidos na data de envio deste e-mail (06/02/25) e podem sofrer alterações.
-Caso tenha interesse em regularizar essas pendências, entre em contato com o nosso time para mais detalhes e orientações sobre os próximos passos.
-Ficamos à disposição para qualquer dúvida ou informação adicional!
-Atenciosamente,
-Prímor Contábil
-(44) 98462-9927 / atendimento@contabilprimor.com.br</t>
-  </si>
-  <si>
-    <t>Olá PB SERVICOS DE FISIOTERAPIA LTDA,
-Identificamos que sua empresa possui algumas pendências em aberto junto à Receita Federal.
-Essas pendências podem gerar multas, juros e complicações mais sérias se não forem regularizadas em tempo hábil.
-Segue o resumo dos seus débitos:
-**Referente a 10/2024:**
-  - outros (SIMPLES NAC.): R$ 97.27
-**Referente a 11/2024:**
-  - outros (SIMPLES NAC.): R$ 89.00
-Os valores informados são válidos na data de envio deste e-mail (06/02/25) e podem sofrer alterações.
-Caso tenha interesse em regularizar essas pendências, entre em contato com o nosso time para mais detalhes e orientações sobre os próximos passos.
-Ficamos à disposição para qualquer dúvida ou informação adicional!
-Atenciosamente,
-Prímor Contábil
-(44) 98462-9927 / atendimento@contabilprimor.com.br</t>
   </si>
   <si>
     <t>Olá GARCIA &amp; MARQUES M G LTDA,
@@ -95,7 +34,7 @@
 Segue o resumo dos seus débitos:
 **Referente a 11/2024:**
   - Departamento Pessoal: R$ 392.69
-Os valores informados são válidos na data de envio deste e-mail (06/02/25) e podem sofrer alterações.
+Os valores informados são válidos na data de envio deste e-mail (07/02/25) e podem sofrer alterações.
 Caso tenha interesse em regularizar essas pendências, entre em contato com o nosso time para mais detalhes e orientações sobre os próximos passos.
 Ficamos à disposição para qualquer dúvida ou informação adicional!
 Atenciosamente,
@@ -109,57 +48,12 @@
 Segue o resumo dos seus débitos:
 **Referente a 11/2024:**
   - Departamento Pessoal: R$ 734.62
-Os valores informados são válidos na data de envio deste e-mail (06/02/25) e podem sofrer alterações.
+Os valores informados são válidos na data de envio deste e-mail (07/02/25) e podem sofrer alterações.
 Caso tenha interesse em regularizar essas pendências, entre em contato com o nosso time para mais detalhes e orientações sobre os próximos passos.
 Ficamos à disposição para qualquer dúvida ou informação adicional!
 Atenciosamente,
 Prímor Contábil
 (44) 98462-9927 / atendimento@contabilprimor.com.br</t>
-  </si>
-  <si>
-    <t>Olá W M ALONSO LTDA,
-Identificamos que sua empresa possui algumas pendências em aberto junto à Receita Federal.
-Essas pendências podem gerar multas, juros e complicações mais sérias se não forem regularizadas em tempo hábil.
-Segue o resumo dos seus débitos:
-**Referente a 05/2024:**
-  - Departamento Pessoal: R$ 361.13
-**Referente a 06/2024:**
-  - Departamento Pessoal: R$ 358.52
-**Referente a 07/2024:**
-  - Departamento Pessoal: R$ 356.04
-**Referente a 08/2024:**
-  - Departamento Pessoal: R$ 353.63
-**Referente a 09/2024:**
-  - Departamento Pessoal: R$ 350.97
-**Referente a 10/2024:**
-  - Departamento Pessoal: R$ 348.71
-**Referente a 11/2024:**
-  - Departamento Pessoal: R$ 319.06
-Os valores informados são válidos na data de envio deste e-mail (06/02/25) e podem sofrer alterações.
-Caso tenha interesse em regularizar essas pendências, entre em contato com o nosso time para mais detalhes e orientações sobre os próximos passos.
-Ficamos à disposição para qualquer dúvida ou informação adicional!
-Atenciosamente,
-Prímor Contábil
-(44) 98462-9927 / atendimento@contabilprimor.com.br</t>
-  </si>
-  <si>
-    <t>Olá YOUNG TECHNOLOGY LTDA,
-Identificamos que sua empresa possui algumas pendências em aberto junto à Receita Federal.
-Essas pendências podem gerar multas, juros e complicações mais sérias se não forem regularizadas em tempo hábil.
-Segue o resumo dos seus débitos:
-**Referente a 10/2024:**
-  - Departamento Pessoal: R$ 1.34
-**Referente a 11/2024:**
-  - Departamento Pessoal: R$ 173.27
-Os valores informados são válidos na data de envio deste e-mail (06/02/25) e podem sofrer alterações.
-Caso tenha interesse em regularizar essas pendências, entre em contato com o nosso time para mais detalhes e orientações sobre os próximos passos.
-Ficamos à disposição para qualquer dúvida ou informação adicional!
-Atenciosamente,
-Prímor Contábil
-(44) 98462-9927 / atendimento@contabilprimor.com.br</t>
-  </si>
-  <si>
-    <t>00907315000117</t>
   </si>
 </sst>
 </file>
@@ -215,12 +109,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,15 +416,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -543,8 +437,8 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
+      <c r="A2">
+        <v>44719717000163</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -552,58 +446,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>30523220000160</v>
+        <v>51465799000122</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>43207542000142</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>43736793000114</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>44719717000163</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>51465799000122</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>53269722000102</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>54614744000125</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/mensagens.xlsx
+++ b/mensagens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Hdlogika\k\Backup_19_08_2021\Unidade_D\K\LEATICIA\Luiz Fernando\Automation_rfb\d-bitos_rfb_pr-mor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B2CD0C-C164-4C44-A6E0-F4C159426509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF5C753-E607-4889-AEA5-C7A71ED5EFE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Empresa</t>
   </si>
@@ -28,26 +28,224 @@
     <t>Mensagem</t>
   </si>
   <si>
-    <t>Olá GARCIA &amp; MARQUES M G LTDA,
+    <t>Olá F A BOLOGNESE LTDA,
 Identificamos que sua empresa possui algumas pendências em aberto junto à Receita Federal.
 Essas pendências podem gerar multas, juros e complicações mais sérias se não forem regularizadas em tempo hábil.
 Segue o resumo dos seus débitos:
 **Referente a 11/2024:**
-  - Departamento Pessoal: R$ 392.69
-Os valores informados são válidos na data de envio deste e-mail (07/02/25) e podem sofrer alterações.
-Caso tenha interesse em regularizar essas pendências, entre em contato com o nosso time para mais detalhes e orientações sobre os próximos passos.
-Ficamos à disposição para qualquer dúvida ou informação adicional!
-Atenciosamente,
-Prímor Contábil
-(44) 98462-9927 / atendimento@contabilprimor.com.br</t>
-  </si>
-  <si>
-    <t>Olá GARCIA MADRUGA LTDA,
-Identificamos que sua empresa possui algumas pendências em aberto junto à Receita Federal.
-Essas pendências podem gerar multas, juros e complicações mais sérias se não forem regularizadas em tempo hábil.
-Segue o resumo dos seus débitos:
+Os valores informados são válidos na data de envio deste e-mail (07/02/25) e podem sofrer alterações.
+Caso tenha interesse em regularizar essas pendências, entre em contato com o nosso time para mais detalhes e orientações sobre os próximos passos.
+Ficamos à disposição para qualquer dúvida ou informação adicional!
+Atenciosamente,
+Prímor Contábil
+(44) 98462-9927 / atendimento@contabilprimor.com.br</t>
+  </si>
+  <si>
+    <t>Olá BORGHI E NECKEL REPRESENTACOES LTDA,
+Identificamos que sua empresa possui algumas pendências em aberto junto à Receita Federal.
+Essas pendências podem gerar multas, juros e complicações mais sérias se não forem regularizadas em tempo hábil.
+Segue o resumo dos seus débitos:
+**Referente a 02/2020:**
+  - outros (PIS): R$ 36.73
+**Referente a 03/2020:**
+  - outros (PIS): R$ 41.98
+**Referente a 07/2024:**
+  - Departamento Pessoal: R$ 544.90
+A empresa possui os seguintes débitos referente a parcelamentos: 
+000520 - INSCRICAO DE CREDITO EM DIVIDA ATIVA'.
+000551 - SIDAT - BLOQUEADO PARA COBRANCA'.
+ATIVA EM COBRANCA'.
+Os valores informados são válidos na data de envio deste e-mail (07/02/25) e podem sofrer alterações.
+Caso tenha interesse em regularizar essas pendências, entre em contato com o nosso time para mais detalhes e orientações sobre os próximos passos.
+Ficamos à disposição para qualquer dúvida ou informação adicional!
+Atenciosamente,
+Prímor Contábil
+(44) 98462-9927 / atendimento@contabilprimor.com.br</t>
+  </si>
+  <si>
+    <t>Olá ADEMIL CONSTRUCOES LTDA,
+Identificamos que sua empresa possui algumas pendências em aberto junto à Receita Federal.
+Essas pendências podem gerar multas, juros e complicações mais sérias se não forem regularizadas em tempo hábil.
+Segue o resumo dos seus débitos:
+**Referente a 06/2024:**
+  - outros (PIS): R$ 336.54
+**Referente a 07/2024:**
+  - outros (PIS): R$ 438.53
+**Referente a 08/2024:**
+  - outros (PIS): R$ 892.82
+**Referente a 09/2024:**
+  - outros (PIS): R$ 398.63
+**Referente a 10/2024:**
+  - outros (PIS): R$ 352.40
 **Referente a 11/2024:**
-  - Departamento Pessoal: R$ 734.62
+  - outros (PIS): R$ 148.60
+  - outros (COFINS): R$ 685.89
+A empresa possui os seguintes débitos referente a parcelamentos: 
+000797 - PARCELAMENTO RESCINDIDO'.
+ATIVA A SER AJUIZADA'.
+Os valores informados são válidos na data de envio deste e-mail (07/02/25) e podem sofrer alterações.
+Caso tenha interesse em regularizar essas pendências, entre em contato com o nosso time para mais detalhes e orientações sobre os próximos passos.
+Ficamos à disposição para qualquer dúvida ou informação adicional!
+Atenciosamente,
+Prímor Contábil
+(44) 98462-9927 / atendimento@contabilprimor.com.br</t>
+  </si>
+  <si>
+    <t>Olá A E COLCHOES MOVEIS E ESTOFADOS LTDA,
+Identificamos que sua empresa possui algumas pendências em aberto junto à Receita Federal.
+Essas pendências podem gerar multas, juros e complicações mais sérias se não forem regularizadas em tempo hábil.
+Segue o resumo dos seus débitos:
+**Referente a 01/2023:**
+  - Departamento Pessoal: R$ 168.34
+**Referente a 02/2023:**
+  - Departamento Pessoal: R$ 100.06
+**Referente a 04/2024:**
+  - outros (PIS): R$ 128.04
+  - outros (COFINS): R$ 590.98
+**Referente a 05/2024:**
+  - outros (PIS): R$ 216.57
+  - outros (COFINS): R$ 999.56
+  - Departamento Pessoal: R$ 552.69
+**Referente a 06/2024:**
+  - Departamento Pessoal: R$ 548.71
+**Referente a 07/2024:**
+  - outros (PIS): R$ 471.73
+  - Departamento Pessoal: R$ 544.90
+**Referente a 08/2024:**
+  - outros (PIS): R$ 81.89
+  - outros (COFINS): R$ 377.99
+  - Departamento Pessoal: R$ 541.22
+**Referente a 09/2024:**
+  - outros (PIS): R$ 23.53
+  - outros (COFINS): R$ 108.60
+  - Departamento Pessoal: R$ 537.16
+**Referente a 10/2024:**
+  - Departamento Pessoal: R$ 533.70
+**Referente a 11/2024:**
+  - outros (PIS): R$ 35.93
+  - outros (COFINS): R$ 165.85
+  - Departamento Pessoal: R$ 488.31
+A empresa possui os seguintes débitos referente a parcelamentos: 
+000797 - PARCELAMENTO RESCINDIDO'.
+ATIVA EM COBRANCA'.
+Os valores informados são válidos na data de envio deste e-mail (07/02/25) e podem sofrer alterações.
+Caso tenha interesse em regularizar essas pendências, entre em contato com o nosso time para mais detalhes e orientações sobre os próximos passos.
+Ficamos à disposição para qualquer dúvida ou informação adicional!
+Atenciosamente,
+Prímor Contábil
+(44) 98462-9927 / atendimento@contabilprimor.com.br</t>
+  </si>
+  <si>
+    <t>Olá DE ARAUJO TRANSPORTES LTDA,
+Identificamos que sua empresa possui algumas pendências em aberto junto à Receita Federal.
+Essas pendências podem gerar multas, juros e complicações mais sérias se não forem regularizadas em tempo hábil.
+Segue o resumo dos seus débitos:
+**Referente a 2024:**
+  - Departamento Pessoal: R$ 258.14
+Os valores informados são válidos na data de envio deste e-mail (07/02/25) e podem sofrer alterações.
+Caso tenha interesse em regularizar essas pendências, entre em contato com o nosso time para mais detalhes e orientações sobre os próximos passos.
+Ficamos à disposição para qualquer dúvida ou informação adicional!
+Atenciosamente,
+Prímor Contábil
+(44) 98462-9927 / atendimento@contabilprimor.com.br</t>
+  </si>
+  <si>
+    <t>Olá A CRUZ DA SILVA COLCHOES E ESTOFADOS,
+Identificamos que sua empresa possui algumas pendências em aberto junto à Receita Federal.
+Essas pendências podem gerar multas, juros e complicações mais sérias se não forem regularizadas em tempo hábil.
+Segue o resumo dos seus débitos:
+**Referente a 08/2024:**
+  - Departamento Pessoal: R$ 644.04
+**Referente a 09/2024:**
+  - Departamento Pessoal: R$ 383.36
+**Referente a 10/2024:**
+  - Departamento Pessoal: R$ 529.49
+**Referente a 11/2024:**
+  - Departamento Pessoal: R$ 529.65
+**Referente a 12/2024:**
+  - Departamento Pessoal: R$ 543.07
+**Referente a 2024:**
+  - Departamento Pessoal: R$ 99.60
+A empresa possui os seguintes débitos referente a parcelamentos: 
+ATIVA NAO AJUIZAVEL EM PROCESSO DE NEGOCIACAO NO SISPAR'.
+Os valores informados são válidos na data de envio deste e-mail (07/02/25) e podem sofrer alterações.
+Caso tenha interesse em regularizar essas pendências, entre em contato com o nosso time para mais detalhes e orientações sobre os próximos passos.
+Ficamos à disposição para qualquer dúvida ou informação adicional!
+Atenciosamente,
+Prímor Contábil
+(44) 98462-9927 / atendimento@contabilprimor.com.br</t>
+  </si>
+  <si>
+    <t>Olá C R V ESTERO E CIA LTDA,
+Identificamos que sua empresa possui algumas pendências em aberto junto à Receita Federal.
+Essas pendências podem gerar multas, juros e complicações mais sérias se não forem regularizadas em tempo hábil.
+Segue o resumo dos seus débitos:
+**Referente a 11/2024:**
+  - Departamento Pessoal: R$ 830.31
+A empresa C R V ESTERO E CIA LTDA possui os seguintes débitos referentes a Processos SIEF:
+10950.918.354/2024-11, 10950.917.607/2024-21, 10950.917.603/2024-42, 10950.917.601/2024-53
+Os valores informados são válidos na data de envio deste e-mail (07/02/25) e podem sofrer alterações.
+Caso tenha interesse em regularizar essas pendências, entre em contato com o nosso time para mais detalhes e orientações sobre os próximos passos.
+Ficamos à disposição para qualquer dúvida ou informação adicional!
+Atenciosamente,
+Prímor Contábil
+(44) 98462-9927 / atendimento@contabilprimor.com.br</t>
+  </si>
+  <si>
+    <t>Olá CHARLEN APARECIDO DO VALE FERNANDES CORRETORA DE SEGUROS,
+Identificamos que sua empresa possui algumas pendências em aberto junto à Receita Federal.
+Essas pendências podem gerar multas, juros e complicações mais sérias se não forem regularizadas em tempo hábil.
+Segue o resumo dos seus débitos:
+**Referente a 10/2024:**
+  - outros (SIMPLES NAC.): R$ 758.32
+**Referente a 11/2024:**
+  - outros (SIMPLES NAC.): R$ 700.05
+  - Departamento Pessoal: R$ 173.27
+Os valores informados são válidos na data de envio deste e-mail (07/02/25) e podem sofrer alterações.
+Caso tenha interesse em regularizar essas pendências, entre em contato com o nosso time para mais detalhes e orientações sobre os próximos passos.
+Ficamos à disposição para qualquer dúvida ou informação adicional!
+Atenciosamente,
+Prímor Contábil
+(44) 98462-9927 / atendimento@contabilprimor.com.br</t>
+  </si>
+  <si>
+    <t>Olá AF SOLUCOES EM ENGENHARIA MECANICA LTDA,
+Identificamos que sua empresa possui algumas pendências em aberto junto à Receita Federal.
+Essas pendências podem gerar multas, juros e complicações mais sérias se não forem regularizadas em tempo hábil.
+Segue o resumo dos seus débitos:
+**Referente a 01/2023:**
+  - outros (MAED - PGDAS-D): R$ 89.05
+**Referente a 02/2022:**
+  - outros (SIMPLES NAC.): R$ 189.69
+**Referente a 02/2023:**
+  - outros (MAED - PGDAS-D): R$ 50.00
+**Referente a 03/2023:**
+  - outros (MAED - PGDAS-D): R$ 50.00
+**Referente a 04/2022:**
+  - outros (MAED - PGDAS-D): R$ 50.00
+  - outros (SIMPLES NAC.): R$ 93.70
+**Referente a 05/2022:**
+  - outros (MAED - PGDAS-D): R$ 50.00
+  - outros (SIMPLES NAC.): R$ 186.12
+**Referente a 06/2022:**
+  - outros (MAED - PGDAS-D): R$ 50.00
+  - outros (SIMPLES NAC.): R$ 92.43
+**Referente a 07/2022:**
+  - outros (MAED - PGDAS-D): R$ 50.00
+  - outros (SIMPLES NAC.): R$ 91.71
+**Referente a 08/2022:**
+  - outros (MAED - PGDAS-D): R$ 50.00
+  - outros (SIMPLES NAC.): R$ 887.72
+**Referente a 09/2022:**
+  - outros (MAED - PGDAS-D): R$ 50.00
+  - outros (SIMPLES NAC.): R$ 491.61
+**Referente a 10/2022:**
+  - outros (MAED - PGDAS-D): R$ 54.25
+**Referente a 11/2022:**
+  - outros (MAED - PGDAS-D): R$ 50.00
+**Referente a 12/2022:**
+  - outros (MAED - PGDAS-D): R$ 110.05
+  - outros (SIMPLES NAC.): R$ 88.39
 Os valores informados são válidos na data de envio deste e-mail (07/02/25) e podem sofrer alterações.
 Caso tenha interesse em regularizar essas pendências, entre em contato com o nosso time para mais detalhes e orientações sobre os próximos passos.
 Ficamos à disposição para qualquer dúvida ou informação adicional!
@@ -416,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,7 +636,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>44719717000163</v>
+        <v>5087518000128</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -446,10 +644,66 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>51465799000122</v>
+        <v>8325066000163</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>11279829000191</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>14952655000174</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>15219621000138</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>20119119000195</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>23098061000139</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>24269050000137</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>29813455000108</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/mensagens.xlsx
+++ b/mensagens.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Hdlogika\k\Backup_19_08_2021\Unidade_D\K\LEATICIA\Luiz Fernando\Automation_rfb\d-bitos_rfb_pr-mor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hillebrande\Documents\Automacao_rfb\d-bitos_rfb_pr-mor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF5C753-E607-4889-AEA5-C7A71ED5EFE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541DBE63-B706-4429-AE66-853126674F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Empresa</t>
   </si>
@@ -168,22 +168,6 @@
   - Departamento Pessoal: R$ 99.60
 A empresa possui os seguintes débitos referente a parcelamentos: 
 ATIVA NAO AJUIZAVEL EM PROCESSO DE NEGOCIACAO NO SISPAR'.
-Os valores informados são válidos na data de envio deste e-mail (07/02/25) e podem sofrer alterações.
-Caso tenha interesse em regularizar essas pendências, entre em contato com o nosso time para mais detalhes e orientações sobre os próximos passos.
-Ficamos à disposição para qualquer dúvida ou informação adicional!
-Atenciosamente,
-Prímor Contábil
-(44) 98462-9927 / atendimento@contabilprimor.com.br</t>
-  </si>
-  <si>
-    <t>Olá C R V ESTERO E CIA LTDA,
-Identificamos que sua empresa possui algumas pendências em aberto junto à Receita Federal.
-Essas pendências podem gerar multas, juros e complicações mais sérias se não forem regularizadas em tempo hábil.
-Segue o resumo dos seus débitos:
-**Referente a 11/2024:**
-  - Departamento Pessoal: R$ 830.31
-A empresa C R V ESTERO E CIA LTDA possui os seguintes débitos referentes a Processos SIEF:
-10950.918.354/2024-11, 10950.917.607/2024-21, 10950.917.603/2024-42, 10950.917.601/2024-53
 Os valores informados são válidos na data de envio deste e-mail (07/02/25) e podem sofrer alterações.
 Caso tenha interesse em regularizar essas pendências, entre em contato com o nosso time para mais detalhes e orientações sobre os próximos passos.
 Ficamos à disposição para qualquer dúvida ou informação adicional!
@@ -614,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,7 +668,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>23098061000139</v>
+        <v>24269050000137</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -692,18 +676,10 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>24269050000137</v>
+        <v>29813455000108</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>29813455000108</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/mensagens.xlsx
+++ b/mensagens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,453 +456,37 @@
 Essas pendências podem gerar multas, juros e complicações mais sérias se não forem regularizadas em tempo hábil.
 Segue o resumo dos seus débitos:
 **Referente a 09/2024:**
-  - outros (PIS): R$ 401.91
+  - Fiscal: R$ 2256.94
 **Referente a 10/2024:**
-  - outros (PIS): R$ 356.87
+  - Fiscal: R$ 2004.02
 **Referente a 11/2024:**
-  - outros (PIS): R$ 163.98
-  - outros (COFINS): R$ 756.85
+  - Fiscal: R$ 920.83
 **Referente a 12/2024:**
-  - outros (PIS): R$ 75.06
-  - outros (COFINS): R$ 346.49
+  - Fiscal: R$ 421.55
 Olá ADEMIL CONSTRUCOES LTDA,
 Identificamos que sua empresa possui algumas pendências em aberto junto à Receita Federal.
 Essas pendências podem gerar multas, juros e complicações mais sérias se não forem regularizadas em tempo hábil.
 Segue o resumo dos seus débitos:
 **Referente a 09/2024:**
-  - outros (PIS): R$ 401.91
-  - outros (COFINS): R$ 1855.03
+  - Fiscal: R$ 2256.94
 **Referente a 10/2024:**
-  - outros (PIS): R$ 356.87
-  - outros (COFINS): R$ 1647.15
+  - Fiscal: R$ 2004.02
 **Referente a 11/2024:**
-  - outros (PIS): R$ 163.98
-  - outros (COFINS): R$ 756.85
+  - Fiscal: R$ 920.83
 **Referente a 12/2024:**
-  - outros (PIS): R$ 75.06
-  - outros (COFINS): R$ 346.49</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>14952655000174</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Olá A E COLCHOES MOVEIS E ESTOFADOS LTDA,
+  - Fiscal: R$ 421.55
+Olá ADEMIL CONSTRUCOES LTDA,
 Identificamos que sua empresa possui algumas pendências em aberto junto à Receita Federal.
 Essas pendências podem gerar multas, juros e complicações mais sérias se não forem regularizadas em tempo hábil.
 Segue o resumo dos seus débitos:
-**Referente a 01/2023:**
-  - Departamento Pessoal: R$ 169.55
-**Referente a 02/2023:**
-  - Departamento Pessoal: R$ 100.78
-**Referente a 04/2024:**
-  - outros (PIS): R$ 129.06
-  - outros (COFINS): R$ 595.68
-**Referente a 05/2024:**
-  - outros (PIS): R$ 218.30
-  - Departamento Pessoal: R$ 557.11
-**Referente a 06/2024:**
-  - Departamento Pessoal: R$ 553.13
-**Referente a 07/2024:**
-  - outros (PIS): R$ 475.56
-  - Departamento Pessoal: R$ 549.33
-**Referente a 08/2024:**
-  - outros (PIS): R$ 82.56
-  - outros (COFINS): R$ 381.08
-  - Departamento Pessoal: R$ 545.64
 **Referente a 09/2024:**
-  - outros (PIS): R$ 23.72
-  - outros (COFINS): R$ 109.50
-  - Departamento Pessoal: R$ 541.58
+  - Departamento Fiscal: R$ 2256.94
 **Referente a 10/2024:**
-  - Departamento Pessoal: R$ 538.12
+  - Departamento Fiscal: R$ 2004.02
 **Referente a 11/2024:**
-  - outros (PIS): R$ 39.65
-  - outros (COFINS): R$ 183.01
-  - Departamento Pessoal: R$ 534.05
+  - Departamento Fiscal: R$ 920.83
 **Referente a 12/2024:**
-  - outros (PIS): R$ 165.41
-  - outros (COFINS): R$ 763.47
-Olá A E COLCHOES MOVEIS E ESTOFADOS LTDA,
-Identificamos que sua empresa possui algumas pendências em aberto junto à Receita Federal.
-Essas pendências podem gerar multas, juros e complicações mais sérias se não forem regularizadas em tempo hábil.
-Segue o resumo dos seus débitos:
-**Referente a 01/2023:**
-  - Departamento Pessoal: R$ 169.55
-**Referente a 02/2023:**
-  - Departamento Pessoal: R$ 100.78
-**Referente a 04/2024:**
-  - outros (PIS): R$ 129.06
-  - outros (COFINS): R$ 595.68
-**Referente a 05/2024:**
-  - outros (PIS): R$ 218.30
-  - outros (COFINS): R$ 1007.55
-  - Departamento Pessoal: R$ 557.11
-**Referente a 06/2024:**
-  - Departamento Pessoal: R$ 553.13
-**Referente a 07/2024:**
-  - outros (PIS): R$ 475.56
-  - outros (COFINS): R$ 2194.95
-  - Departamento Pessoal: R$ 549.33
-**Referente a 08/2024:**
-  - outros (PIS): R$ 82.56
-  - outros (COFINS): R$ 381.08
-  - Departamento Pessoal: R$ 545.64
-**Referente a 09/2024:**
-  - outros (PIS): R$ 23.72
-  - outros (COFINS): R$ 109.50
-  - Departamento Pessoal: R$ 541.58
-**Referente a 10/2024:**
-  - Departamento Pessoal: R$ 538.12
-**Referente a 11/2024:**
-  - outros (PIS): R$ 39.65
-  - outros (COFINS): R$ 183.01
-  - Departamento Pessoal: R$ 534.05
-**Referente a 12/2024:**
-  - outros (PIS): R$ 165.41
-  - outros (COFINS): R$ 763.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>28171579000174</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Olá AGENCIA DWK DE PUBLICIDADE E MKT LTDA,
-Identificamos que sua empresa possui algumas pendências em aberto junto à Receita Federal.
-Essas pendências podem gerar multas, juros e complicações mais sérias se não forem regularizadas em tempo hábil.
-Segue o resumo dos seus débitos:
-**Referente a 01/2025:**
-  - outros (SIMPLES NAC.): R$ 520.09
-Olá AGENCIA DWK DE PUBLICIDADE E MKT LTDA,
-Identificamos que sua empresa possui algumas pendências em aberto junto à Receita Federal.
-Essas pendências podem gerar multas, juros e complicações mais sérias se não forem regularizadas em tempo hábil.
-Segue o resumo dos seus débitos:
-**Referente a 01/2025:**
-  - outros (SIMPLES NAC.): R$ 520.09</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>29813455000108</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Olá AF SOLUCOES EM ENGENHARIA MECANICA LTDA,
-Identificamos que sua empresa possui algumas pendências em aberto junto à Receita Federal.
-Essas pendências podem gerar multas, juros e complicações mais sérias se não forem regularizadas em tempo hábil.
-Segue o resumo dos seus débitos:
-**Referente a 01/2023:**
-  - outros (MAED - PGDAS-D): R$ 89.94
-**Referente a 02/2022:**
-  - outros (SIMPLES NAC.): R$ 190.94
-**Referente a 02/2023:**
-  - outros (MAED - PGDAS-D): R$ 50.50
-**Referente a 03/2023:**
-  - outros (MAED - PGDAS-D): R$ 50.50
-**Referente a 04/2022:**
-  - outros (MAED - PGDAS-D): R$ 50.50
-  - outros (SIMPLES NAC.): R$ 94.33
-**Referente a 05/2022:**
-  - outros (MAED - PGDAS-D): R$ 50.50
-  - outros (SIMPLES NAC.): R$ 187.37
-**Referente a 06/2022:**
-  - outros (MAED - PGDAS-D): R$ 50.50
-  - outros (SIMPLES NAC.): R$ 93.06
-**Referente a 07/2022:**
-  - outros (MAED - PGDAS-D): R$ 50.50
-  - outros (SIMPLES NAC.): R$ 92.33
-**Referente a 08/2022:**
-  - outros (MAED - PGDAS-D): R$ 50.50
-  - outros (SIMPLES NAC.): R$ 893.82
-**Referente a 09/2022:**
-  - outros (MAED - PGDAS-D): R$ 50.50
-  - outros (SIMPLES NAC.): R$ 495.02
-**Referente a 10/2022:**
-  - outros (MAED - PGDAS-D): R$ 54.79
-**Referente a 11/2022:**
-  - outros (MAED - PGDAS-D): R$ 50.50
-**Referente a 12/2022:**
-  - outros (MAED - PGDAS-D): R$ 111.15
-  - outros (SIMPLES NAC.): R$ 89.01
-Olá AF SOLUCOES EM ENGENHARIA MECANICA LTDA,
-Identificamos que sua empresa possui algumas pendências em aberto junto à Receita Federal.
-Essas pendências podem gerar multas, juros e complicações mais sérias se não forem regularizadas em tempo hábil.
-Segue o resumo dos seus débitos:
-**Referente a 01/2023:**
-  - outros (MAED - PGDAS-D): R$ 89.94
-**Referente a 02/2022:**
-  - outros (SIMPLES NAC.): R$ 190.94
-**Referente a 02/2023:**
-  - outros (MAED - PGDAS-D): R$ 50.50
-**Referente a 03/2023:**
-  - outros (MAED - PGDAS-D): R$ 50.50
-**Referente a 04/2022:**
-  - outros (MAED - PGDAS-D): R$ 50.50
-  - outros (SIMPLES NAC.): R$ 94.33
-**Referente a 05/2022:**
-  - outros (MAED - PGDAS-D): R$ 50.50
-  - outros (SIMPLES NAC.): R$ 187.37
-**Referente a 06/2022:**
-  - outros (MAED - PGDAS-D): R$ 50.50
-  - outros (SIMPLES NAC.): R$ 93.06
-**Referente a 07/2022:**
-  - outros (MAED - PGDAS-D): R$ 50.50
-  - outros (SIMPLES NAC.): R$ 92.33
-**Referente a 08/2022:**
-  - outros (MAED - PGDAS-D): R$ 50.50
-  - outros (SIMPLES NAC.): R$ 893.82
-**Referente a 09/2022:**
-  - outros (MAED - PGDAS-D): R$ 50.50
-  - outros (SIMPLES NAC.): R$ 495.02
-**Referente a 10/2022:**
-  - outros (MAED - PGDAS-D): R$ 54.79
-  - outros (SIMPLES NAC.): R$ 1604.76
-**Referente a 11/2022:**
-  - outros (MAED - PGDAS-D): R$ 50.50
-  - outros (SIMPLES NAC.): R$ 1288.51
-**Referente a 12/2022:**
-  - outros (MAED - PGDAS-D): R$ 111.15
-  - outros (SIMPLES NAC.): R$ 89.01</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>32618533000128</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Olá ADIALA MOVEIS EXCLUSIVOS LTDA,
-Identificamos que sua empresa possui algumas pendências em aberto junto à Receita Federal.
-Essas pendências podem gerar multas, juros e complicações mais sérias se não forem regularizadas em tempo hábil.
-Segue o resumo dos seus débitos:
-**Referente a 01/2024:**
-  - Departamento Pessoal: R$ 983.33
-**Referente a 02/2024:**
-  - Departamento Pessoal: R$ 977.08
-**Referente a 03/2022:**
-  - outros (MAED - DCTF): R$ 264.30
-**Referente a 03/2024:**
-  - Departamento Pessoal: R$ 956.15
-**Referente a 04/2024:**
-  - Departamento Pessoal: R$ 949.99
-**Referente a 05/2024:**
-  - Departamento Pessoal: R$ 944.13
-**Referente a 06/2024:**
-  - Departamento Pessoal: R$ 937.38
-**Referente a 07/2024:**
-  - Departamento Pessoal: R$ 930.93
-**Referente a 08/2022:**
-  - Departamento Pessoal: R$ 53.95
-**Referente a 08/2024:**
-  - Departamento Pessoal: R$ 285.06
-**Referente a 09/2022:**
-  - Departamento Pessoal: R$ 41.98
-**Referente a 12/2023:**
-  - Departamento Pessoal: R$ 989.35
-Olá ADIALA MOVEIS EXCLUSIVOS LTDA,
-Identificamos que sua empresa possui algumas pendências em aberto junto à Receita Federal.
-Essas pendências podem gerar multas, juros e complicações mais sérias se não forem regularizadas em tempo hábil.
-Segue o resumo dos seus débitos:
-**Referente a 01/2024:**
-  - Departamento Pessoal: R$ 2201.91
-**Referente a 02/2024:**
-  - Departamento Pessoal: R$ 2187.92
-**Referente a 03/2022:**
-  - outros (MAED - DCTF): R$ 264.30
-**Referente a 03/2024:**
-  - Departamento Pessoal: R$ 2158.69
-**Referente a 04/2024:**
-  - Departamento Pessoal: R$ 2144.78
-**Referente a 05/2024:**
-  - Departamento Pessoal: R$ 2131.55
-**Referente a 06/2024:**
-  - Departamento Pessoal: R$ 2116.31
-**Referente a 07/2024:**
-  - Departamento Pessoal: R$ 2101.75
-**Referente a 08/2022:**
-  - Departamento Pessoal: R$ 53.95
-**Referente a 08/2024:**
-  - Departamento Pessoal: R$ 285.06
-**Referente a 09/2022:**
-  - Departamento Pessoal: R$ 41.98
-**Referente a 12/2023:**
-  - Departamento Pessoal: R$ 2215.40</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>40567022000152</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Olá 2W COBERTURAS LTDA,
-Identificamos que sua empresa possui algumas pendências em aberto junto à Receita Federal.
-Essas pendências podem gerar multas, juros e complicações mais sérias se não forem regularizadas em tempo hábil.
-Segue o resumo dos seus débitos:
-**Referente a 01/2025:**
-  - outros (SIMPLES NAC.): R$ 557.46
-**Referente a 10/2024:**
-  - Departamento Pessoal: R$ 1279.14
-**Referente a 11/2024:**
-  - Departamento Pessoal: R$ 1269.46
-**Referente a 12/2024:**
-  - Departamento Pessoal: R$ 1177.90
-  - outros (SIMPLES NAC.): R$ 295.71
-Olá 2W COBERTURAS LTDA,
-Identificamos que sua empresa possui algumas pendências em aberto junto à Receita Federal.
-Essas pendências podem gerar multas, juros e complicações mais sérias se não forem regularizadas em tempo hábil.
-Segue o resumo dos seus débitos:
-**Referente a 01/2025:**
-  - outros (SIMPLES NAC.): R$ 557.46
-**Referente a 10/2024:**
-  - Departamento Pessoal: R$ 1279.14
-  - outros (SIMPLES NAC.): R$ 8324.95
-**Referente a 11/2024:**
-  - Departamento Pessoal: R$ 1269.46
-  - outros (SIMPLES NAC.): R$ 9663.57
-**Referente a 12/2024:**
-  - Departamento Pessoal: R$ 1177.90
-  - outros (SIMPLES NAC.): R$ 295.71</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>44912057000132</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Olá A C CASTRO REIS LTDA,
-Identificamos que sua empresa possui algumas pendências em aberto junto à Receita Federal.
-Essas pendências podem gerar multas, juros e complicações mais sérias se não forem regularizadas em tempo hábil.
-Segue o resumo dos seus débitos:
-**Referente a 01/2025:**
-  - outros (SIMPLES NAC.): R$ 85.67
-Olá A C CASTRO REIS LTDA,
-Identificamos que sua empresa possui algumas pendências em aberto junto à Receita Federal.
-Essas pendências podem gerar multas, juros e complicações mais sérias se não forem regularizadas em tempo hábil.
-Segue o resumo dos seus débitos:
-**Referente a 01/2025:**
-  - outros (SIMPLES NAC.): R$ 85.67</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>46980481000140</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Olá 149 DIGITAL LTDA,
-Identificamos que sua empresa possui algumas pendências em aberto junto à Receita Federal.
-Essas pendências podem gerar multas, juros e complicações mais sérias se não forem regularizadas em tempo hábil.
-Segue o resumo dos seus débitos:
-**Referente a 10/2024:**
-  - outros (SIMPLES NAC.): R$ 268.48
-  - Departamento Pessoal: R$ 190.94
-**Referente a 12/2024:**
-  - outros (SIMPLES NAC.): R$ 484.17
-Olá 149 DIGITAL LTDA,
-Identificamos que sua empresa possui algumas pendências em aberto junto à Receita Federal.
-Essas pendências podem gerar multas, juros e complicações mais sérias se não forem regularizadas em tempo hábil.
-Segue o resumo dos seus débitos:
-**Referente a 10/2024:**
-  - outros (SIMPLES NAC.): R$ 268.48
-  - Departamento Pessoal: R$ 190.94
-**Referente a 12/2024:**
-  - outros (SIMPLES NAC.): R$ 484.17</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>48552914000191</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Olá A C DE LIMA COSTA LTDA,
-Identificamos que sua empresa possui algumas pendências em aberto junto à Receita Federal.
-Essas pendências podem gerar multas, juros e complicações mais sérias se não forem regularizadas em tempo hábil.
-Segue o resumo dos seus débitos:
-**Referente a 07/2024:**
-  - Departamento Pessoal: R$ 194.92
-**Referente a 08/2024:**
-  - Departamento Pessoal: R$ 193.61
-**Referente a 09/2024:**
-  - Departamento Pessoal: R$ 192.17
-**Referente a 10/2024:**
-  - Departamento Pessoal: R$ 190.94
-**Referente a 11/2024:**
-  - Departamento Pessoal: R$ 189.50
-**Referente a 12/2024:**
-  - Departamento Pessoal: R$ 175.32
-Olá A C DE LIMA COSTA LTDA,
-Identificamos que sua empresa possui algumas pendências em aberto junto à Receita Federal.
-Essas pendências podem gerar multas, juros e complicações mais sérias se não forem regularizadas em tempo hábil.
-Segue o resumo dos seus débitos:
-**Referente a 07/2024:**
-  - Departamento Pessoal: R$ 194.92
-**Referente a 08/2024:**
-  - Departamento Pessoal: R$ 193.61
-**Referente a 09/2024:**
-  - Departamento Pessoal: R$ 192.17
-**Referente a 10/2024:**
-  - Departamento Pessoal: R$ 190.94
-**Referente a 11/2024:**
-  - Departamento Pessoal: R$ 189.50
-**Referente a 12/2024:**
-  - Departamento Pessoal: R$ 175.32</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>48663577000100</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Olá A B SERVICOS DE ESCRITORIO LTDA,
-Identificamos que sua empresa possui algumas pendências em aberto junto à Receita Federal.
-Essas pendências podem gerar multas, juros e complicações mais sérias se não forem regularizadas em tempo hábil.
-Segue o resumo dos seus débitos:
-**Referente a 01/2025:**
-  - outros (SIMPLES NAC.): R$ 516.53
-Olá A B SERVICOS DE ESCRITORIO LTDA,
-Identificamos que sua empresa possui algumas pendências em aberto junto à Receita Federal.
-Essas pendências podem gerar multas, juros e complicações mais sérias se não forem regularizadas em tempo hábil.
-Segue o resumo dos seus débitos:
-**Referente a 01/2025:**
-  - outros (SIMPLES NAC.): R$ 516.53</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>78436110000198</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Olá ADERVAL RODRIGUES CARLOS,
-Identificamos que sua empresa possui algumas pendências em aberto junto à Receita Federal.
-Essas pendências podem gerar multas, juros e complicações mais sérias se não forem regularizadas em tempo hábil.
-Segue o resumo dos seus débitos:
-**Referente a 01/2025:**
-  - outros (SIMPLES NAC.): R$ 978.41
-Olá ADERVAL RODRIGUES CARLOS,
-Identificamos que sua empresa possui algumas pendências em aberto junto à Receita Federal.
-Essas pendências podem gerar multas, juros e complicações mais sérias se não forem regularizadas em tempo hábil.
-Segue o resumo dos seus débitos:
-**Referente a 01/2025:**
-  - outros (SIMPLES NAC.): R$ 978.41</t>
+  - Departamento Fiscal: R$ 421.55</t>
         </is>
       </c>
     </row>
